--- a/output/temp_bundler_counts.xlsx
+++ b/output/temp_bundler_counts.xlsx
@@ -732,7 +732,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GENINE FIDLER</t>
+          <t>COLLEEN BELL</t>
         </is>
       </c>
       <c r="B38">
@@ -742,7 +742,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GEORGE TSUNIS</t>
+          <t>GENINE FIDLER</t>
         </is>
       </c>
       <c r="B39">
@@ -752,7 +752,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GERALD ACKER</t>
+          <t>GEORGE TSUNIS</t>
         </is>
       </c>
       <c r="B40">
@@ -762,7 +762,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>JANE STETSON</t>
+          <t>GERALD ACKER</t>
         </is>
       </c>
       <c r="B41">
@@ -772,7 +772,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>JOAN JACOBS</t>
+          <t>JANE STETSON</t>
         </is>
       </c>
       <c r="B42">
@@ -782,7 +782,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>JOHN MORGAN</t>
+          <t>JOAN JACOBS</t>
         </is>
       </c>
       <c r="B43">
@@ -792,7 +792,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>JOHN PHILLIPS</t>
+          <t>JOHN MORGAN</t>
         </is>
       </c>
       <c r="B44">
@@ -802,7 +802,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>KEVIN CONLON</t>
+          <t>JOHN PHILLIPS</t>
         </is>
       </c>
       <c r="B45">
@@ -812,7 +812,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>LEE MILLER</t>
+          <t>KEVIN CONLON</t>
         </is>
       </c>
       <c r="B46">
@@ -822,7 +822,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LISA GOLDMAN</t>
+          <t>LEE MILLER</t>
         </is>
       </c>
       <c r="B47">
@@ -832,7 +832,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MARK NICHOLS</t>
+          <t>LISA GOLDMAN</t>
         </is>
       </c>
       <c r="B48">
@@ -842,7 +842,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MICHAEL PARHAM</t>
+          <t>MARK NICHOLS</t>
         </is>
       </c>
       <c r="B49">
@@ -852,7 +852,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NEIL BLUHM</t>
+          <t>MICHAEL PARHAM</t>
         </is>
       </c>
       <c r="B50">
@@ -862,7 +862,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NICOLE AVANT</t>
+          <t>NEIL BLUHM</t>
         </is>
       </c>
       <c r="B51">
@@ -872,7 +872,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NOAH MAMET</t>
+          <t>NICOLE AVANT</t>
         </is>
       </c>
       <c r="B52">
@@ -882,7 +882,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PETER BESHAR</t>
+          <t>NOAH MAMET</t>
         </is>
       </c>
       <c r="B53">
@@ -892,7 +892,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RUSTY RUEFF</t>
+          <t>PETER BESHAR</t>
         </is>
       </c>
       <c r="B54">
@@ -902,7 +902,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RYAN MURPHY</t>
+          <t>RUSTY RUEFF</t>
         </is>
       </c>
       <c r="B55">
@@ -912,7 +912,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SUZI LEVINE</t>
+          <t>RYAN MURPHY</t>
         </is>
       </c>
       <c r="B56">
@@ -922,7 +922,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TIM BROAS</t>
+          <t>SUZI LEVINE</t>
         </is>
       </c>
       <c r="B57">
@@ -932,7 +932,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TOM BERNSTEIN</t>
+          <t>TIM BROAS</t>
         </is>
       </c>
       <c r="B58">
@@ -942,7 +942,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TOM FORD</t>
+          <t>TOM BERNSTEIN</t>
         </is>
       </c>
       <c r="B59">
@@ -952,7 +952,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>WADE RANDLETT</t>
+          <t>TOM FORD</t>
         </is>
       </c>
       <c r="B60">
@@ -962,17 +962,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ALEX HECKLER</t>
+          <t>WADE RANDLETT</t>
         </is>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ALEXA WESNER</t>
+          <t>ALEX HECKLER</t>
         </is>
       </c>
       <c r="B62">
@@ -982,7 +982,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AMY SINGH</t>
+          <t>ALEXA WESNER</t>
         </is>
       </c>
       <c r="B63">
@@ -992,7 +992,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ANDREW WEINSTEIN</t>
+          <t>AMY SINGH</t>
         </is>
       </c>
       <c r="B64">
@@ -1002,7 +1002,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>AZITA RAJI</t>
+          <t>ANDREW WEINSTEIN</t>
         </is>
       </c>
       <c r="B65">
@@ -1012,7 +1012,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BARRY GOODMAN</t>
+          <t>AZITA RAJI</t>
         </is>
       </c>
       <c r="B66">
@@ -1022,7 +1022,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BECKY DRAPER</t>
+          <t>BARRY GOODMAN</t>
         </is>
       </c>
       <c r="B67">
@@ -1032,7 +1032,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BEVERLY REEVES</t>
+          <t>BECKY DRAPER</t>
         </is>
       </c>
       <c r="B68">
@@ -1042,7 +1042,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BOB CLARK</t>
+          <t>BEVERLY REEVES</t>
         </is>
       </c>
       <c r="B69">
@@ -1052,7 +1052,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BOB SHERMAN</t>
+          <t>BOB CLARK</t>
         </is>
       </c>
       <c r="B70">
@@ -1062,7 +1062,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BOBBY STEIN</t>
+          <t>BOB SHERMAN</t>
         </is>
       </c>
       <c r="B71">
@@ -1072,7 +1072,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BRUCE HEYMAN</t>
+          <t>BOBBY STEIN</t>
         </is>
       </c>
       <c r="B72">
@@ -1082,7 +1082,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CAROL FRILLMAN</t>
+          <t>BRUCE HEYMAN</t>
         </is>
       </c>
       <c r="B73">
@@ -1092,7 +1092,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CAROL HAMILTON</t>
+          <t>CAROL FRILLMAN</t>
         </is>
       </c>
       <c r="B74">
@@ -1102,7 +1102,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CARY PATTERSON</t>
+          <t>CAROL HAMILTON</t>
         </is>
       </c>
       <c r="B75">
@@ -1112,7 +1112,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CHARLES BONE</t>
+          <t>CARY PATTERSON</t>
         </is>
       </c>
       <c r="B76">
@@ -1122,7 +1122,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CHARLIE KIREKER</t>
+          <t>CHARLES BONE</t>
         </is>
       </c>
       <c r="B77">
@@ -1132,7 +1132,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CHIP FORRESTER</t>
+          <t>CHARLIE KIREKER</t>
         </is>
       </c>
       <c r="B78">
@@ -1142,7 +1142,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>COLLEEN BELL</t>
+          <t>CHIP FORRESTER</t>
         </is>
       </c>
       <c r="B79">
